--- a/Validación del cálculo de los descriptores/Parámetros python.xlsx
+++ b/Validación del cálculo de los descriptores/Parámetros python.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90727fd8e92db46b/Desktop/Tesis/blind-estimation-of-acoustics-parameters/Validación del cálculo de los descriptores/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDA6DB4DB3F16ADC9885B3CAAC74527C9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3817B04E-6307-4A37-BFFD-5F080C3DC3F2}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="130" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,19 +161,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,27 +239,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,24 +273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,17 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -536,7 +483,7 @@
         <v>125</v>
       </c>
       <c r="C2">
-        <v>1.0029999999999999</v>
+        <v>1.003</v>
       </c>
       <c r="D2">
         <v>-0.53</v>
@@ -548,7 +495,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -568,7 +515,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -588,7 +535,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -596,7 +543,7 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>0.97299999999999998</v>
+        <v>0.973</v>
       </c>
       <c r="D5">
         <v>3.13</v>
@@ -608,7 +555,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -616,19 +563,19 @@
         <v>2000</v>
       </c>
       <c r="C6">
-        <v>0.98199999999999998</v>
+        <v>0.982</v>
       </c>
       <c r="D6">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="E6">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="F6">
         <v>48.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -636,7 +583,7 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>1.0289999999999999</v>
+        <v>1.029</v>
       </c>
       <c r="D7">
         <v>2.95</v>
@@ -648,7 +595,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -656,7 +603,7 @@
         <v>8000</v>
       </c>
       <c r="C8">
-        <v>0.99399999999999999</v>
+        <v>0.994</v>
       </c>
       <c r="D8">
         <v>3.92</v>
@@ -668,7 +615,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -676,19 +623,19 @@
         <v>125</v>
       </c>
       <c r="C9">
-        <v>1.9359999999999999</v>
+        <v>1.936</v>
       </c>
       <c r="D9">
-        <v>-2.2799999999999998</v>
+        <v>-2.28</v>
       </c>
       <c r="E9">
-        <v>-2.2799999999999998</v>
+        <v>-2.28</v>
       </c>
       <c r="F9">
         <v>21.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -696,7 +643,7 @@
         <v>250</v>
       </c>
       <c r="C10">
-        <v>2.0369999999999999</v>
+        <v>2.037</v>
       </c>
       <c r="D10">
         <v>-3.12</v>
@@ -708,7 +655,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -716,7 +663,7 @@
         <v>500</v>
       </c>
       <c r="C11">
-        <v>1.9830000000000001</v>
+        <v>1.983</v>
       </c>
       <c r="D11">
         <v>-2.21</v>
@@ -728,7 +675,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -736,7 +683,7 @@
         <v>1000</v>
       </c>
       <c r="C12">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="D12">
         <v>-1.25</v>
@@ -748,7 +695,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -756,7 +703,7 @@
         <v>2000</v>
       </c>
       <c r="C13">
-        <v>2.0139999999999998</v>
+        <v>2.014</v>
       </c>
       <c r="D13">
         <v>-1.25</v>
@@ -768,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -776,7 +723,7 @@
         <v>4000</v>
       </c>
       <c r="C14">
-        <v>1.9910000000000001</v>
+        <v>1.991</v>
       </c>
       <c r="D14">
         <v>-0.85</v>
@@ -788,7 +735,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -805,10 +752,10 @@
         <v>-0.59</v>
       </c>
       <c r="F15">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -819,16 +766,16 @@
         <v>1.752</v>
       </c>
       <c r="D16">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="E16">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="F16">
         <v>25.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -836,7 +783,7 @@
         <v>250</v>
       </c>
       <c r="C17">
-        <v>1.8080000000000001</v>
+        <v>1.808</v>
       </c>
       <c r="D17">
         <v>-1.76</v>
@@ -848,7 +795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -856,7 +803,7 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>1.8939999999999999</v>
+        <v>1.894</v>
       </c>
       <c r="D18">
         <v>1.03</v>
@@ -865,10 +812,10 @@
         <v>1.03</v>
       </c>
       <c r="F18">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -876,7 +823,7 @@
         <v>1000</v>
       </c>
       <c r="C19">
-        <v>1.8080000000000001</v>
+        <v>1.808</v>
       </c>
       <c r="D19">
         <v>-1.74</v>
@@ -888,7 +835,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -908,7 +855,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -916,7 +863,7 @@
         <v>4000</v>
       </c>
       <c r="C21">
-        <v>1.7929999999999999</v>
+        <v>1.793</v>
       </c>
       <c r="D21">
         <v>-1.07</v>
@@ -928,7 +875,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -948,7 +895,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -956,19 +903,19 @@
         <v>125</v>
       </c>
       <c r="C23">
-        <v>1.0029999999999999</v>
+        <v>1.003</v>
       </c>
       <c r="D23">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="E23">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="F23">
         <v>41.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -976,7 +923,7 @@
         <v>250</v>
       </c>
       <c r="C24">
-        <v>0.97799999999999998</v>
+        <v>0.978</v>
       </c>
       <c r="D24">
         <v>1.83</v>
@@ -985,10 +932,10 @@
         <v>1.83</v>
       </c>
       <c r="F24">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -996,7 +943,7 @@
         <v>500</v>
       </c>
       <c r="C25">
-        <v>1.0309999999999999</v>
+        <v>1.031</v>
       </c>
       <c r="D25">
         <v>3.54</v>
@@ -1008,7 +955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1016,19 +963,19 @@
         <v>1000</v>
       </c>
       <c r="C26">
-        <v>0.99099999999999999</v>
+        <v>0.991</v>
       </c>
       <c r="D26">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="E26">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="F26">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1036,7 +983,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0.97499999999999998</v>
+        <v>0.975</v>
       </c>
       <c r="D27">
         <v>3.34</v>
@@ -1048,7 +995,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1003,7 @@
         <v>4000</v>
       </c>
       <c r="C28">
-        <v>0.99299999999999999</v>
+        <v>0.993</v>
       </c>
       <c r="D28">
         <v>2.92</v>
@@ -1068,7 +1015,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1076,19 +1023,19 @@
         <v>8000</v>
       </c>
       <c r="C29">
-        <v>0.96799999999999997</v>
+        <v>0.968</v>
       </c>
       <c r="D29">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="E29">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="F29">
         <v>48.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1063,7 @@
         <v>250</v>
       </c>
       <c r="C31">
-        <v>1.5149999999999999</v>
+        <v>1.515</v>
       </c>
       <c r="D31">
         <v>1.97</v>
@@ -1128,7 +1075,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1139,16 +1086,16 @@
         <v>1.518</v>
       </c>
       <c r="D32">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="E32">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="F32">
         <v>41.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1103,7 @@
         <v>1000</v>
       </c>
       <c r="C33">
-        <v>1.5169999999999999</v>
+        <v>1.517</v>
       </c>
       <c r="D33">
         <v>0.27</v>
@@ -1168,7 +1115,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1135,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1143,7 @@
         <v>4000</v>
       </c>
       <c r="C35">
-        <v>1.5109999999999999</v>
+        <v>1.511</v>
       </c>
       <c r="D35">
         <v>0.35</v>
@@ -1205,10 +1152,10 @@
         <v>0.35</v>
       </c>
       <c r="F35">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1163,7 @@
         <v>8000</v>
       </c>
       <c r="C36">
-        <v>1.4770000000000001</v>
+        <v>1.477</v>
       </c>
       <c r="D36">
         <v>0.15</v>
@@ -1228,7 +1175,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1183,7 @@
         <v>125</v>
       </c>
       <c r="C37">
-        <v>2.2730000000000001</v>
+        <v>2.273</v>
       </c>
       <c r="D37">
         <v>1.66</v>
@@ -1248,7 +1195,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1203,7 @@
         <v>250</v>
       </c>
       <c r="C38">
-        <v>2.0790000000000002</v>
+        <v>2.079</v>
       </c>
       <c r="D38">
         <v>2.59</v>
@@ -1268,7 +1215,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1276,7 +1223,7 @@
         <v>500</v>
       </c>
       <c r="C39">
-        <v>2.2210000000000001</v>
+        <v>2.221</v>
       </c>
       <c r="D39">
         <v>3.89</v>
@@ -1288,7 +1235,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1243,7 @@
         <v>1000</v>
       </c>
       <c r="C40">
-        <v>2.2829999999999999</v>
+        <v>2.283</v>
       </c>
       <c r="D40">
         <v>2.13</v>
@@ -1308,7 +1255,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1316,7 +1263,7 @@
         <v>2000</v>
       </c>
       <c r="C41">
-        <v>2.1269999999999998</v>
+        <v>2.127</v>
       </c>
       <c r="D41">
         <v>3.63</v>
@@ -1325,10 +1272,10 @@
         <v>3.63</v>
       </c>
       <c r="F41">
-        <v>68.900000000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1283,7 @@
         <v>4000</v>
       </c>
       <c r="C42">
-        <v>1.6559999999999999</v>
+        <v>1.656</v>
       </c>
       <c r="D42">
         <v>4.67</v>
@@ -1345,10 +1292,10 @@
         <v>4.67</v>
       </c>
       <c r="F42">
-        <v>73.599999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1303,7 @@
         <v>8000</v>
       </c>
       <c r="C43">
-        <v>1.1850000000000001</v>
+        <v>1.185</v>
       </c>
       <c r="D43">
         <v>6.67</v>
@@ -1368,7 +1315,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1323,7 @@
         <v>125</v>
       </c>
       <c r="C44">
-        <v>2.1760000000000002</v>
+        <v>2.176</v>
       </c>
       <c r="D44">
         <v>3.48</v>
@@ -1385,10 +1332,10 @@
         <v>3.48</v>
       </c>
       <c r="F44">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1343,7 @@
         <v>250</v>
       </c>
       <c r="C45">
-        <v>2.0059999999999998</v>
+        <v>2.006</v>
       </c>
       <c r="D45">
         <v>6.02</v>
@@ -1408,7 +1355,7 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1363,7 @@
         <v>500</v>
       </c>
       <c r="C46">
-        <v>2.0920000000000001</v>
+        <v>2.092</v>
       </c>
       <c r="D46">
         <v>7.9</v>
@@ -1428,7 +1375,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1395,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1456,7 +1403,7 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>2.0019999999999998</v>
+        <v>2.002</v>
       </c>
       <c r="D48">
         <v>7.96</v>
@@ -1468,7 +1415,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1485,10 +1432,10 @@
         <v>9.69</v>
       </c>
       <c r="F49">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1496,7 +1443,7 @@
         <v>8000</v>
       </c>
       <c r="C50">
-        <v>1.1479999999999999</v>
+        <v>1.148</v>
       </c>
       <c r="D50">
         <v>11.71</v>
@@ -1508,7 +1455,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1463,7 @@
         <v>125</v>
       </c>
       <c r="C51">
-        <v>2.3039999999999998</v>
+        <v>2.304</v>
       </c>
       <c r="D51">
         <v>-1.58</v>
@@ -1525,10 +1472,10 @@
         <v>-1.58</v>
       </c>
       <c r="F51">
-        <v>38.299999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1495,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1503,7 @@
         <v>500</v>
       </c>
       <c r="C53">
-        <v>2.2370000000000001</v>
+        <v>2.237</v>
       </c>
       <c r="D53">
         <v>2.21</v>
@@ -1568,7 +1515,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1588,7 +1535,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1543,7 @@
         <v>2000</v>
       </c>
       <c r="C55">
-        <v>2.1749999999999998</v>
+        <v>2.175</v>
       </c>
       <c r="D55">
         <v>2.33</v>
@@ -1608,7 +1555,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1563,7 @@
         <v>4000</v>
       </c>
       <c r="C56">
-        <v>1.6679999999999999</v>
+        <v>1.668</v>
       </c>
       <c r="D56">
         <v>2.77</v>
@@ -1628,7 +1575,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1636,7 +1583,7 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>1.2669999999999999</v>
+        <v>1.267</v>
       </c>
       <c r="D57">
         <v>3.94</v>
@@ -1648,7 +1595,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1603,7 @@
         <v>125</v>
       </c>
       <c r="C58">
-        <v>2.6779999999999999</v>
+        <v>2.678</v>
       </c>
       <c r="D58">
         <v>-3.82</v>
@@ -1668,7 +1615,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1623,7 @@
         <v>250</v>
       </c>
       <c r="C59">
-        <v>2.3980000000000001</v>
+        <v>2.398</v>
       </c>
       <c r="D59">
         <v>-7.07</v>
@@ -1685,10 +1632,10 @@
         <v>-7.07</v>
       </c>
       <c r="F59">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1643,7 @@
         <v>500</v>
       </c>
       <c r="C60">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="D60">
         <v>-0.13</v>
@@ -1708,7 +1655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1716,7 +1663,7 @@
         <v>1000</v>
       </c>
       <c r="C61">
-        <v>2.4660000000000002</v>
+        <v>2.466</v>
       </c>
       <c r="D61">
         <v>-2.92</v>
@@ -1728,7 +1675,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1736,7 +1683,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>2.3879999999999999</v>
+        <v>2.388</v>
       </c>
       <c r="D62">
         <v>-1.69</v>
@@ -1745,10 +1692,10 @@
         <v>-1.69</v>
       </c>
       <c r="F62">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1715,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1723,7 @@
         <v>8000</v>
       </c>
       <c r="C64">
-        <v>1.4510000000000001</v>
+        <v>1.451</v>
       </c>
       <c r="D64">
         <v>-0.59</v>
@@ -1788,7 +1735,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -1796,7 +1743,7 @@
         <v>125</v>
       </c>
       <c r="C65">
-        <v>0.95399999999999996</v>
+        <v>0.954</v>
       </c>
       <c r="D65">
         <v>-2.12</v>
@@ -1808,7 +1755,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1816,7 +1763,7 @@
         <v>250</v>
       </c>
       <c r="C66">
-        <v>0.94599999999999995</v>
+        <v>0.946</v>
       </c>
       <c r="D66">
         <v>-3.29</v>
@@ -1825,10 +1772,10 @@
         <v>-3.29</v>
       </c>
       <c r="F66">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1795,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1815,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1876,19 +1823,19 @@
         <v>2000</v>
       </c>
       <c r="C69">
-        <v>0.93899999999999995</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D69">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E69">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F69">
         <v>43.9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1843,7 @@
         <v>4000</v>
       </c>
       <c r="C70">
-        <v>0.79800000000000004</v>
+        <v>0.798</v>
       </c>
       <c r="D70">
         <v>1.57</v>
@@ -1908,7 +1855,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +1863,7 @@
         <v>8000</v>
       </c>
       <c r="C71">
-        <v>0.66200000000000003</v>
+        <v>0.662</v>
       </c>
       <c r="D71">
         <v>3.83</v>
@@ -1928,7 +1875,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -1948,7 +1895,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1903,7 @@
         <v>250</v>
       </c>
       <c r="C73">
-        <v>1.0860000000000001</v>
+        <v>1.086</v>
       </c>
       <c r="D73">
         <v>-3.99</v>
@@ -1968,7 +1915,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -1988,7 +1935,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -1996,7 +1943,7 @@
         <v>1000</v>
       </c>
       <c r="C75">
-        <v>1.2030000000000001</v>
+        <v>1.203</v>
       </c>
       <c r="D75">
         <v>0.1</v>
@@ -2008,7 +1955,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +1963,7 @@
         <v>2000</v>
       </c>
       <c r="C76">
-        <v>1.0529999999999999</v>
+        <v>1.053</v>
       </c>
       <c r="D76">
         <v>-0.16</v>
@@ -2025,10 +1972,10 @@
         <v>-0.16</v>
       </c>
       <c r="F76">
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +1983,7 @@
         <v>4000</v>
       </c>
       <c r="C77">
-        <v>0.90600000000000003</v>
+        <v>0.906</v>
       </c>
       <c r="D77">
         <v>0.83</v>
@@ -2048,7 +1995,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2056,7 +2003,7 @@
         <v>8000</v>
       </c>
       <c r="C78">
-        <v>0.74099999999999999</v>
+        <v>0.741</v>
       </c>
       <c r="D78">
         <v>3.13</v>
@@ -2068,7 +2015,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -2088,7 +2035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -2108,7 +2055,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -2128,7 +2075,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -2148,7 +2095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -2168,7 +2115,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2188,7 +2135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -2208,7 +2155,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -2216,7 +2163,7 @@
         <v>125</v>
       </c>
       <c r="C86">
-        <v>2.5990000000000002</v>
+        <v>2.599</v>
       </c>
       <c r="D86">
         <v>-7.07</v>
@@ -2228,7 +2175,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2236,19 +2183,19 @@
         <v>250</v>
       </c>
       <c r="C87">
-        <v>2.3420000000000001</v>
+        <v>2.342</v>
       </c>
       <c r="D87">
-        <v>-8.0399999999999991</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="E87">
-        <v>-8.0399999999999991</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="F87">
         <v>6.8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -2256,7 +2203,7 @@
         <v>500</v>
       </c>
       <c r="C88">
-        <v>2.4369999999999998</v>
+        <v>2.437</v>
       </c>
       <c r="D88">
         <v>-1.46</v>
@@ -2265,10 +2212,10 @@
         <v>-1.46</v>
       </c>
       <c r="F88">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -2276,7 +2223,7 @@
         <v>1000</v>
       </c>
       <c r="C89">
-        <v>2.4540000000000002</v>
+        <v>2.454</v>
       </c>
       <c r="D89">
         <v>-4.13</v>
@@ -2288,7 +2235,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -2299,16 +2246,16 @@
         <v>2.331</v>
       </c>
       <c r="D90">
-        <v>-4.4000000000000004</v>
+        <v>-4.4</v>
       </c>
       <c r="E90">
-        <v>-4.4000000000000004</v>
+        <v>-4.4</v>
       </c>
       <c r="F90">
         <v>21.1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -2316,7 +2263,7 @@
         <v>4000</v>
       </c>
       <c r="C91">
-        <v>2.0680000000000001</v>
+        <v>2.068</v>
       </c>
       <c r="D91">
         <v>-3.41</v>
@@ -2328,7 +2275,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2368,7 +2315,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2388,7 +2335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -2399,16 +2346,16 @@
         <v>2.71</v>
       </c>
       <c r="D95">
-        <v>-2.0499999999999998</v>
+        <v>-2.05</v>
       </c>
       <c r="E95">
-        <v>-2.0499999999999998</v>
+        <v>-2.05</v>
       </c>
       <c r="F95">
         <v>31.9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -2419,16 +2366,16 @@
         <v>2.742</v>
       </c>
       <c r="D96">
-        <v>-4.6900000000000004</v>
+        <v>-4.69</v>
       </c>
       <c r="E96">
-        <v>-4.6900000000000004</v>
+        <v>-4.69</v>
       </c>
       <c r="F96">
         <v>20.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2383,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2.6179999999999999</v>
+        <v>2.618</v>
       </c>
       <c r="D97">
         <v>-4.97</v>
@@ -2448,7 +2395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2403,7 @@
         <v>4000</v>
       </c>
       <c r="C98">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="D98">
         <v>-3.96</v>
@@ -2468,7 +2415,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2423,7 @@
         <v>8000</v>
       </c>
       <c r="C99">
-        <v>1.5369999999999999</v>
+        <v>1.537</v>
       </c>
       <c r="D99">
         <v>-0.92</v>
@@ -2488,7 +2435,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -2496,19 +2443,19 @@
         <v>125</v>
       </c>
       <c r="C100">
-        <v>0.82399999999999995</v>
+        <v>0.824</v>
       </c>
       <c r="D100">
-        <v>-4.5999999999999996</v>
+        <v>-4.6</v>
       </c>
       <c r="E100">
-        <v>-4.5999999999999996</v>
+        <v>-4.6</v>
       </c>
       <c r="F100">
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2463,7 @@
         <v>250</v>
       </c>
       <c r="C101">
-        <v>0.84899999999999998</v>
+        <v>0.849</v>
       </c>
       <c r="D101">
         <v>-5.72</v>
@@ -2528,7 +2475,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2536,7 +2483,7 @@
         <v>500</v>
       </c>
       <c r="C102">
-        <v>0.96099999999999997</v>
+        <v>0.961</v>
       </c>
       <c r="D102">
         <v>0.09</v>
@@ -2548,7 +2495,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="C103">
-        <v>0.94899999999999995</v>
+        <v>0.949</v>
       </c>
       <c r="D103">
         <v>1.31</v>
@@ -2568,7 +2515,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -2576,7 +2523,7 @@
         <v>2000</v>
       </c>
       <c r="C104">
-        <v>0.85199999999999998</v>
+        <v>0.852</v>
       </c>
       <c r="D104">
         <v>0.97</v>
@@ -2588,7 +2535,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -2608,7 +2555,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -2616,19 +2563,19 @@
         <v>8000</v>
       </c>
       <c r="C106">
-        <v>0.63200000000000001</v>
+        <v>0.632</v>
       </c>
       <c r="D106">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="E106">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="F106">
         <v>33.4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2583,7 @@
         <v>125</v>
       </c>
       <c r="C107">
-        <v>2.0430000000000001</v>
+        <v>2.043</v>
       </c>
       <c r="D107">
         <v>-8.98</v>
@@ -2648,7 +2595,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -2656,19 +2603,19 @@
         <v>250</v>
       </c>
       <c r="C108">
-        <v>1.7609999999999999</v>
+        <v>1.761</v>
       </c>
       <c r="D108">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="E108">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="F108">
         <v>1.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +2635,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -2696,7 +2643,7 @@
         <v>1000</v>
       </c>
       <c r="C110">
-        <v>1.9770000000000001</v>
+        <v>1.977</v>
       </c>
       <c r="D110">
         <v>-3.04</v>
@@ -2708,7 +2655,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2683,7 @@
         <v>4000</v>
       </c>
       <c r="C112">
-        <v>1.5589999999999999</v>
+        <v>1.559</v>
       </c>
       <c r="D112">
         <v>-0.97</v>
@@ -2748,7 +2695,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -2768,7 +2715,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -2776,7 +2723,7 @@
         <v>125</v>
       </c>
       <c r="C114">
-        <v>2.5049999999999999</v>
+        <v>2.505</v>
       </c>
       <c r="D114">
         <v>-9.99</v>
@@ -2788,7 +2735,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -2796,7 +2743,7 @@
         <v>250</v>
       </c>
       <c r="C115">
-        <v>2.2160000000000002</v>
+        <v>2.216</v>
       </c>
       <c r="D115">
         <v>-10.16</v>
@@ -2808,7 +2755,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -2816,7 +2763,7 @@
         <v>500</v>
       </c>
       <c r="C116">
-        <v>2.2639999999999998</v>
+        <v>2.264</v>
       </c>
       <c r="D116">
         <v>-4.78</v>
@@ -2828,7 +2775,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -2836,19 +2783,19 @@
         <v>1000</v>
       </c>
       <c r="C117">
-        <v>2.3879999999999999</v>
+        <v>2.388</v>
       </c>
       <c r="D117">
-        <v>-4.0599999999999996</v>
+        <v>-4.06</v>
       </c>
       <c r="E117">
-        <v>-4.0599999999999996</v>
+        <v>-4.06</v>
       </c>
       <c r="F117">
         <v>12.8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -2856,7 +2803,7 @@
         <v>2000</v>
       </c>
       <c r="C118">
-        <v>2.1429999999999998</v>
+        <v>2.143</v>
       </c>
       <c r="D118">
         <v>-4.2</v>
@@ -2868,7 +2815,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -2876,7 +2823,7 @@
         <v>4000</v>
       </c>
       <c r="C119">
-        <v>1.8919999999999999</v>
+        <v>1.892</v>
       </c>
       <c r="D119">
         <v>-1.96</v>
@@ -2885,10 +2832,10 @@
         <v>-1.96</v>
       </c>
       <c r="F119">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -2896,7 +2843,7 @@
         <v>8000</v>
       </c>
       <c r="C120">
-        <v>1.3839999999999999</v>
+        <v>1.384</v>
       </c>
       <c r="D120">
         <v>0.83</v>
@@ -2908,7 +2855,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -2916,7 +2863,7 @@
         <v>125</v>
       </c>
       <c r="C121">
-        <v>2.5539999999999998</v>
+        <v>2.554</v>
       </c>
       <c r="D121">
         <v>-4.05</v>
@@ -2928,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -2936,7 +2883,7 @@
         <v>250</v>
       </c>
       <c r="C122">
-        <v>2.3050000000000002</v>
+        <v>2.305</v>
       </c>
       <c r="D122">
         <v>-3.47</v>
@@ -2948,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -2956,7 +2903,7 @@
         <v>500</v>
       </c>
       <c r="C123">
-        <v>2.5129999999999999</v>
+        <v>2.513</v>
       </c>
       <c r="D123">
         <v>-3.06</v>
@@ -2968,7 +2915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -2976,19 +2923,19 @@
         <v>1000</v>
       </c>
       <c r="C124">
-        <v>2.5230000000000001</v>
+        <v>2.523</v>
       </c>
       <c r="D124">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="E124">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="F124">
         <v>0.9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -2996,19 +2943,19 @@
         <v>2000</v>
       </c>
       <c r="C125">
-        <v>2.3719999999999999</v>
+        <v>2.372</v>
       </c>
       <c r="D125">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="E125">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F125">
         <v>3.8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -3028,7 +2975,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -3048,7 +2995,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -3056,19 +3003,19 @@
         <v>125</v>
       </c>
       <c r="C128">
-        <v>2.5329999999999999</v>
+        <v>2.533</v>
       </c>
       <c r="D128">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="E128">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3076,7 +3023,7 @@
         <v>250</v>
       </c>
       <c r="C129">
-        <v>2.2919999999999998</v>
+        <v>2.292</v>
       </c>
       <c r="D129">
         <v>-0.85</v>
@@ -3088,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3096,7 +3043,7 @@
         <v>500</v>
       </c>
       <c r="C130">
-        <v>2.5129999999999999</v>
+        <v>2.513</v>
       </c>
       <c r="D130">
         <v>-0.53</v>
@@ -3108,7 +3055,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -3128,7 +3075,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -3148,7 +3095,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +3115,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3176,7 +3123,7 @@
         <v>8000</v>
       </c>
       <c r="C134">
-        <v>1.4670000000000001</v>
+        <v>1.467</v>
       </c>
       <c r="D134">
         <v>5.96</v>
@@ -3185,10 +3132,10 @@
         <v>5.96</v>
       </c>
       <c r="F134">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -3196,7 +3143,7 @@
         <v>125</v>
       </c>
       <c r="C135">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D135">
         <v>-1.48</v>
@@ -3208,7 +3155,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -3216,7 +3163,7 @@
         <v>250</v>
       </c>
       <c r="C136">
-        <v>0.85599999999999998</v>
+        <v>0.856</v>
       </c>
       <c r="D136">
         <v>-0.13</v>
@@ -3225,10 +3172,10 @@
         <v>-0.13</v>
       </c>
       <c r="F136">
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -3236,7 +3183,7 @@
         <v>500</v>
       </c>
       <c r="C137">
-        <v>0.97399999999999998</v>
+        <v>0.974</v>
       </c>
       <c r="D137">
         <v>-1.99</v>
@@ -3248,7 +3195,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>25</v>
       </c>
@@ -3256,19 +3203,19 @@
         <v>1000</v>
       </c>
       <c r="C138">
-        <v>1.0289999999999999</v>
+        <v>1.029</v>
       </c>
       <c r="D138">
-        <v>-2.5299999999999998</v>
+        <v>-2.53</v>
       </c>
       <c r="E138">
-        <v>-2.5299999999999998</v>
+        <v>-2.53</v>
       </c>
       <c r="F138">
         <v>30.5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -3276,7 +3223,7 @@
         <v>2000</v>
       </c>
       <c r="C139">
-        <v>0.91400000000000003</v>
+        <v>0.914</v>
       </c>
       <c r="D139">
         <v>-0.19</v>
@@ -3288,7 +3235,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>25</v>
       </c>
@@ -3296,7 +3243,7 @@
         <v>4000</v>
       </c>
       <c r="C140">
-        <v>0.80900000000000005</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D140">
         <v>2.8</v>
@@ -3308,7 +3255,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>25</v>
       </c>
@@ -3316,7 +3263,7 @@
         <v>8000</v>
       </c>
       <c r="C141">
-        <v>0.68400000000000005</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D141">
         <v>7.11</v>
